--- a/Data/DataSheet.xlsx
+++ b/Data/DataSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">search item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flipart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keshav</t>
   </si>
   <si>
     <t xml:space="preserve">flipkart</t>
@@ -140,7 +146,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -224,17 +230,17 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="5" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="11.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="5" style="0" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="11.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -252,22 +258,45 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DataSheet.xlsx
+++ b/Data/DataSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t xml:space="preserve">facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persistent systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tech mahindra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wipro</t>
   </si>
 </sst>
 </file>
@@ -227,20 +236,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C4"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="5" style="0" width="8.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="5" style="0" width="8.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="11.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -297,6 +306,30 @@
       </c>
       <c r="D4" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DataSheet.xlsx
+++ b/Data/DataSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -47,15 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persistent systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tech mahindra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wipro</t>
   </si>
 </sst>
 </file>
@@ -236,20 +227,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="5" style="0" width="8.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="11.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="5" style="0" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="11.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,30 +297,6 @@
       </c>
       <c r="D4" s="0" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
